--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Amh-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Amh-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Egfr</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.393174</v>
+        <v>0.1040016666666667</v>
       </c>
       <c r="H2">
-        <v>1.179522</v>
+        <v>0.312005</v>
       </c>
       <c r="I2">
-        <v>0.3787719539933123</v>
+        <v>0.07757682717850639</v>
       </c>
       <c r="J2">
-        <v>0.3787719539933123</v>
+        <v>0.07757682717850639</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N2">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O2">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P2">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q2">
-        <v>0.6189069886199999</v>
+        <v>0.1770035218827778</v>
       </c>
       <c r="R2">
-        <v>5.570162897579999</v>
+        <v>1.593031696945</v>
       </c>
       <c r="S2">
-        <v>0.007669611894562102</v>
+        <v>0.001633475428183774</v>
       </c>
       <c r="T2">
-        <v>0.007669611894562102</v>
+        <v>0.001633475428183774</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.393174</v>
+        <v>0.1040016666666667</v>
       </c>
       <c r="H3">
-        <v>1.179522</v>
+        <v>0.312005</v>
       </c>
       <c r="I3">
-        <v>0.3787719539933123</v>
+        <v>0.07757682717850639</v>
       </c>
       <c r="J3">
-        <v>0.3787719539933123</v>
+        <v>0.07757682717850639</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>187.511841</v>
       </c>
       <c r="O3">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P3">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q3">
-        <v>24.574926857778</v>
+        <v>6.500514661245</v>
       </c>
       <c r="R3">
-        <v>221.174341720002</v>
+        <v>58.504631951205</v>
       </c>
       <c r="S3">
-        <v>0.3045371191504381</v>
+        <v>0.05998994176355558</v>
       </c>
       <c r="T3">
-        <v>0.3045371191504382</v>
+        <v>0.05998994176355559</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.393174</v>
+        <v>0.1040016666666667</v>
       </c>
       <c r="H4">
-        <v>1.179522</v>
+        <v>0.312005</v>
       </c>
       <c r="I4">
-        <v>0.3787719539933123</v>
+        <v>0.07757682717850639</v>
       </c>
       <c r="J4">
-        <v>0.3787719539933123</v>
+        <v>0.07757682717850639</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N4">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O4">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P4">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q4">
-        <v>0.071912704122</v>
+        <v>0.045123099115</v>
       </c>
       <c r="R4">
-        <v>0.647214337098</v>
+        <v>0.406107892035</v>
       </c>
       <c r="S4">
-        <v>0.0008911557649946906</v>
+        <v>0.0004164181190511393</v>
       </c>
       <c r="T4">
-        <v>0.0008911557649946906</v>
+        <v>0.0004164181190511393</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.393174</v>
+        <v>0.1040016666666667</v>
       </c>
       <c r="H5">
-        <v>1.179522</v>
+        <v>0.312005</v>
       </c>
       <c r="I5">
-        <v>0.3787719539933123</v>
+        <v>0.07757682717850639</v>
       </c>
       <c r="J5">
-        <v>0.3787719539933123</v>
+        <v>0.07757682717850639</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N5">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O5">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P5">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q5">
-        <v>5.262751680084</v>
+        <v>1.66115455664</v>
       </c>
       <c r="R5">
-        <v>47.364765120756</v>
+        <v>14.95039100976</v>
       </c>
       <c r="S5">
-        <v>0.06521700938245729</v>
+        <v>0.01532995005875624</v>
       </c>
       <c r="T5">
-        <v>0.06521700938245729</v>
+        <v>0.01532995005875624</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.393174</v>
+        <v>0.1040016666666667</v>
       </c>
       <c r="H6">
-        <v>1.179522</v>
+        <v>0.312005</v>
       </c>
       <c r="I6">
-        <v>0.3787719539933123</v>
+        <v>0.07757682717850639</v>
       </c>
       <c r="J6">
-        <v>0.3787719539933123</v>
+        <v>0.07757682717850639</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N6">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O6">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P6">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q6">
-        <v>0.036882735534</v>
+        <v>0.02243506619722222</v>
       </c>
       <c r="R6">
-        <v>0.331944619806</v>
+        <v>0.201915595775</v>
       </c>
       <c r="S6">
-        <v>0.0004570578008600201</v>
+        <v>0.0002070418089596476</v>
       </c>
       <c r="T6">
-        <v>0.0004570578008600201</v>
+        <v>0.0002070418089596476</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -850,16 +850,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.1900503333333333</v>
+        <v>0.393174</v>
       </c>
       <c r="H7">
-        <v>0.5701510000000001</v>
+        <v>1.179522</v>
       </c>
       <c r="I7">
-        <v>0.1830887497996994</v>
+        <v>0.2932759870747143</v>
       </c>
       <c r="J7">
-        <v>0.1830887497996994</v>
+        <v>0.2932759870747143</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N7">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O7">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P7">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q7">
-        <v>0.29916393121</v>
+        <v>0.669154494762</v>
       </c>
       <c r="R7">
-        <v>2.69247538089</v>
+        <v>6.022390452858</v>
       </c>
       <c r="S7">
-        <v>0.003707295744629161</v>
+        <v>0.006175286306316185</v>
       </c>
       <c r="T7">
-        <v>0.003707295744629161</v>
+        <v>0.006175286306316185</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -912,16 +912,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.1900503333333333</v>
+        <v>0.393174</v>
       </c>
       <c r="H8">
-        <v>0.5701510000000001</v>
+        <v>1.179522</v>
       </c>
       <c r="I8">
-        <v>0.1830887497996994</v>
+        <v>0.2932759870747143</v>
       </c>
       <c r="J8">
-        <v>0.1830887497996994</v>
+        <v>0.2932759870747143</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>187.511841</v>
       </c>
       <c r="O8">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P8">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q8">
-        <v>11.878895961999</v>
+        <v>24.574926857778</v>
       </c>
       <c r="R8">
-        <v>106.910063657991</v>
+        <v>221.174341720002</v>
       </c>
       <c r="S8">
-        <v>0.1472055146243491</v>
+        <v>0.2267894940428282</v>
       </c>
       <c r="T8">
-        <v>0.1472055146243491</v>
+        <v>0.2267894940428282</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -974,46 +974,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.1900503333333333</v>
+        <v>0.393174</v>
       </c>
       <c r="H9">
-        <v>0.5701510000000001</v>
+        <v>1.179522</v>
       </c>
       <c r="I9">
-        <v>0.1830887497996994</v>
+        <v>0.2932759870747143</v>
       </c>
       <c r="J9">
-        <v>0.1830887497996994</v>
+        <v>0.2932759870747143</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N9">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O9">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P9">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q9">
-        <v>0.03476077611766667</v>
+        <v>0.170586010206</v>
       </c>
       <c r="R9">
-        <v>0.312846985059</v>
+        <v>1.535274091854</v>
       </c>
       <c r="S9">
-        <v>0.0004307620803744974</v>
+        <v>0.001574251478724501</v>
       </c>
       <c r="T9">
-        <v>0.0004307620803744974</v>
+        <v>0.001574251478724501</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.1900503333333333</v>
+        <v>0.393174</v>
       </c>
       <c r="H10">
-        <v>0.5701510000000001</v>
+        <v>1.179522</v>
       </c>
       <c r="I10">
-        <v>0.1830887497996994</v>
+        <v>0.2932759870747143</v>
       </c>
       <c r="J10">
-        <v>0.1830887497996994</v>
+        <v>0.2932759870747143</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N10">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O10">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P10">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q10">
-        <v>2.543880600066445</v>
+        <v>6.279926106815999</v>
       </c>
       <c r="R10">
-        <v>22.894925400598</v>
+        <v>56.519334961344</v>
       </c>
       <c r="S10">
-        <v>0.0315242472089689</v>
+        <v>0.05795424224997766</v>
       </c>
       <c r="T10">
-        <v>0.0315242472089689</v>
+        <v>0.05795424224997767</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1098,46 +1098,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.1900503333333333</v>
+        <v>0.393174</v>
       </c>
       <c r="H11">
-        <v>0.5701510000000001</v>
+        <v>1.179522</v>
       </c>
       <c r="I11">
-        <v>0.1830887497996994</v>
+        <v>0.2932759870747143</v>
       </c>
       <c r="J11">
-        <v>0.1830887497996994</v>
+        <v>0.2932759870747143</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N11">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O11">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P11">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q11">
-        <v>0.01782817831922222</v>
+        <v>0.08481483999</v>
       </c>
       <c r="R11">
-        <v>0.160453604873</v>
+        <v>0.7633335599100001</v>
       </c>
       <c r="S11">
-        <v>0.0002209301413777288</v>
+        <v>0.0007827129968676832</v>
       </c>
       <c r="T11">
-        <v>0.0002209301413777288</v>
+        <v>0.0007827129968676832</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1326116666666667</v>
+        <v>0.201297</v>
       </c>
       <c r="H12">
-        <v>0.397835</v>
+        <v>0.603891</v>
       </c>
       <c r="I12">
-        <v>0.1277540735288781</v>
+        <v>0.1501512723887611</v>
       </c>
       <c r="J12">
-        <v>0.1277540735288781</v>
+        <v>0.1501512723887611</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N12">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O12">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P12">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q12">
-        <v>0.20874800285</v>
+        <v>0.342593336111</v>
       </c>
       <c r="R12">
-        <v>1.87873202565</v>
+        <v>3.083340024999</v>
       </c>
       <c r="S12">
-        <v>0.002586844542173112</v>
+        <v>0.003161619556742127</v>
       </c>
       <c r="T12">
-        <v>0.002586844542173112</v>
+        <v>0.003161619556742127</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1326116666666667</v>
+        <v>0.201297</v>
       </c>
       <c r="H13">
-        <v>0.397835</v>
+        <v>0.603891</v>
       </c>
       <c r="I13">
-        <v>0.1277540735288781</v>
+        <v>0.1501512723887611</v>
       </c>
       <c r="J13">
-        <v>0.1277540735288781</v>
+        <v>0.1501512723887611</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>187.511841</v>
       </c>
       <c r="O13">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P13">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q13">
-        <v>8.288752584915001</v>
+        <v>12.581857019259</v>
       </c>
       <c r="R13">
-        <v>74.59877326423501</v>
+        <v>113.236713173331</v>
       </c>
       <c r="S13">
-        <v>0.1027157821534609</v>
+        <v>0.1161115556530676</v>
       </c>
       <c r="T13">
-        <v>0.102715782153461</v>
+        <v>0.1161115556530676</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1326116666666667</v>
+        <v>0.201297</v>
       </c>
       <c r="H14">
-        <v>0.397835</v>
+        <v>0.603891</v>
       </c>
       <c r="I14">
-        <v>0.1277540735288781</v>
+        <v>0.1501512723887611</v>
       </c>
       <c r="J14">
-        <v>0.1277540735288781</v>
+        <v>0.1501512723887611</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N14">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O14">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P14">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q14">
-        <v>0.02425507166833333</v>
+        <v>0.08733652809300001</v>
       </c>
       <c r="R14">
-        <v>0.218295645015</v>
+        <v>0.786028752837</v>
       </c>
       <c r="S14">
-        <v>0.000300573413439226</v>
+        <v>0.0008059843731091218</v>
       </c>
       <c r="T14">
-        <v>0.000300573413439226</v>
+        <v>0.0008059843731091219</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1326116666666667</v>
+        <v>0.201297</v>
       </c>
       <c r="H15">
-        <v>0.397835</v>
+        <v>0.603891</v>
       </c>
       <c r="I15">
-        <v>0.1277540735288781</v>
+        <v>0.1501512723887611</v>
       </c>
       <c r="J15">
-        <v>0.1277540735288781</v>
+        <v>0.1501512723887611</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N15">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O15">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P15">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q15">
-        <v>1.775046853425555</v>
+        <v>3.215192982047999</v>
       </c>
       <c r="R15">
-        <v>15.97542168083</v>
+        <v>28.936736838432</v>
       </c>
       <c r="S15">
-        <v>0.02199671470957719</v>
+        <v>0.0296713798526702</v>
       </c>
       <c r="T15">
-        <v>0.02199671470957719</v>
+        <v>0.0296713798526702</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1326116666666667</v>
+        <v>0.201297</v>
       </c>
       <c r="H16">
-        <v>0.397835</v>
+        <v>0.603891</v>
       </c>
       <c r="I16">
-        <v>0.1277540735288781</v>
+        <v>0.1501512723887611</v>
       </c>
       <c r="J16">
-        <v>0.1277540735288781</v>
+        <v>0.1501512723887611</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N16">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O16">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P16">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q16">
-        <v>0.01243999102277778</v>
+        <v>0.04342345334499999</v>
       </c>
       <c r="R16">
-        <v>0.111959919205</v>
+        <v>0.390811080105</v>
       </c>
       <c r="S16">
-        <v>0.0001541587102276567</v>
+        <v>0.0004007329531720663</v>
       </c>
       <c r="T16">
-        <v>0.0001541587102276567</v>
+        <v>0.0004007329531720663</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.322187</v>
+        <v>0.305657</v>
       </c>
       <c r="H17">
-        <v>0.966561</v>
+        <v>0.916971</v>
       </c>
       <c r="I17">
-        <v>0.3103852226781103</v>
+        <v>0.2279953872364295</v>
       </c>
       <c r="J17">
-        <v>0.3103852226781102</v>
+        <v>0.2279953872364295</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N17">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O17">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P17">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q17">
-        <v>0.50716422231</v>
+        <v>0.5202067161243333</v>
       </c>
       <c r="R17">
-        <v>4.56447800079</v>
+        <v>4.681860445119</v>
       </c>
       <c r="S17">
-        <v>0.00628487450206087</v>
+        <v>0.004800723055262266</v>
       </c>
       <c r="T17">
-        <v>0.006284874502060869</v>
+        <v>0.004800723055262265</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.322187</v>
+        <v>0.305657</v>
       </c>
       <c r="H18">
-        <v>0.966561</v>
+        <v>0.916971</v>
       </c>
       <c r="I18">
-        <v>0.3103852226781103</v>
+        <v>0.2279953872364295</v>
       </c>
       <c r="J18">
-        <v>0.3103852226781102</v>
+        <v>0.2279953872364295</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>187.511841</v>
       </c>
       <c r="O18">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P18">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q18">
-        <v>20.137959172089</v>
+        <v>19.104768928179</v>
       </c>
       <c r="R18">
-        <v>181.241632548801</v>
+        <v>171.942920353611</v>
       </c>
       <c r="S18">
-        <v>0.2495533804568009</v>
+        <v>0.1763081902176867</v>
       </c>
       <c r="T18">
-        <v>0.2495533804568009</v>
+        <v>0.1763081902176867</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.322187</v>
+        <v>0.305657</v>
       </c>
       <c r="H19">
-        <v>0.966561</v>
+        <v>0.916971</v>
       </c>
       <c r="I19">
-        <v>0.3103852226781103</v>
+        <v>0.2279953872364295</v>
       </c>
       <c r="J19">
-        <v>0.3103852226781102</v>
+        <v>0.2279953872364295</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N19">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O19">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P19">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q19">
-        <v>0.05892896886100001</v>
+        <v>0.132615096933</v>
       </c>
       <c r="R19">
-        <v>0.530360719749</v>
+        <v>1.193535872397</v>
       </c>
       <c r="S19">
-        <v>0.0007302588738226445</v>
+        <v>0.001223837243135342</v>
       </c>
       <c r="T19">
-        <v>0.0007302588738226444</v>
+        <v>0.001223837243135342</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.322187</v>
+        <v>0.305657</v>
       </c>
       <c r="H20">
-        <v>0.966561</v>
+        <v>0.916971</v>
       </c>
       <c r="I20">
-        <v>0.3103852226781103</v>
+        <v>0.2279953872364295</v>
       </c>
       <c r="J20">
-        <v>0.3103852226781102</v>
+        <v>0.2279953872364295</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N20">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O20">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P20">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q20">
-        <v>4.312569436308667</v>
+        <v>4.882070976288</v>
       </c>
       <c r="R20">
-        <v>38.813124926778</v>
+        <v>43.938638786592</v>
       </c>
       <c r="S20">
-        <v>0.05344217217289488</v>
+        <v>0.04505414860443829</v>
       </c>
       <c r="T20">
-        <v>0.05344217217289488</v>
+        <v>0.04505414860443829</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.305657</v>
+      </c>
+      <c r="H21">
+        <v>0.916971</v>
+      </c>
+      <c r="I21">
+        <v>0.2279953872364295</v>
+      </c>
+      <c r="J21">
+        <v>0.2279953872364295</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.2157183333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.647155</v>
+      </c>
+      <c r="O21">
+        <v>0.002668861520763652</v>
+      </c>
+      <c r="P21">
+        <v>0.002668861520763652</v>
+      </c>
+      <c r="Q21">
+        <v>0.06593581861166667</v>
+      </c>
+      <c r="R21">
+        <v>0.593422367505</v>
+      </c>
+      <c r="S21">
+        <v>0.0006084881159069151</v>
+      </c>
+      <c r="T21">
+        <v>0.0006084881159069151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3364983333333333</v>
+      </c>
+      <c r="H22">
+        <v>1.009495</v>
+      </c>
+      <c r="I22">
+        <v>0.2510005261215888</v>
+      </c>
+      <c r="J22">
+        <v>0.2510005261215888</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.701929666666667</v>
+      </c>
+      <c r="N22">
+        <v>5.105789</v>
+      </c>
+      <c r="O22">
+        <v>0.02105622887134972</v>
+      </c>
+      <c r="P22">
+        <v>0.02105622887134972</v>
+      </c>
+      <c r="Q22">
+        <v>0.5726964962838889</v>
+      </c>
+      <c r="R22">
+        <v>5.154268466555</v>
+      </c>
+      <c r="S22">
+        <v>0.005285124524845367</v>
+      </c>
+      <c r="T22">
+        <v>0.005285124524845367</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3364983333333333</v>
+      </c>
+      <c r="H23">
+        <v>1.009495</v>
+      </c>
+      <c r="I23">
+        <v>0.2510005261215888</v>
+      </c>
+      <c r="J23">
+        <v>0.2510005261215888</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>62.503947</v>
+      </c>
+      <c r="N23">
+        <v>187.511841</v>
+      </c>
+      <c r="O23">
+        <v>0.7732971809418951</v>
+      </c>
+      <c r="P23">
+        <v>0.7732971809418953</v>
+      </c>
+      <c r="Q23">
+        <v>21.032473992255</v>
+      </c>
+      <c r="R23">
+        <v>189.292265930295</v>
+      </c>
+      <c r="S23">
+        <v>0.1940979992647571</v>
+      </c>
+      <c r="T23">
+        <v>0.1940979992647572</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3364983333333333</v>
+      </c>
+      <c r="H24">
+        <v>1.009495</v>
+      </c>
+      <c r="I24">
+        <v>0.2510005261215888</v>
+      </c>
+      <c r="J24">
+        <v>0.2510005261215888</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.4338690000000001</v>
+      </c>
+      <c r="N24">
+        <v>1.301607</v>
+      </c>
+      <c r="O24">
+        <v>0.005367815805265532</v>
+      </c>
+      <c r="P24">
+        <v>0.005367815805265533</v>
+      </c>
+      <c r="Q24">
+        <v>0.145996195385</v>
+      </c>
+      <c r="R24">
+        <v>1.313965758465</v>
+      </c>
+      <c r="S24">
+        <v>0.001347324591245428</v>
+      </c>
+      <c r="T24">
+        <v>0.001347324591245428</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G21">
-        <v>0.322187</v>
-      </c>
-      <c r="H21">
-        <v>0.966561</v>
-      </c>
-      <c r="I21">
-        <v>0.3103852226781103</v>
-      </c>
-      <c r="J21">
-        <v>0.3103852226781102</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.09380766666666666</v>
-      </c>
-      <c r="N21">
-        <v>0.281423</v>
-      </c>
-      <c r="O21">
-        <v>0.001206683324996365</v>
-      </c>
-      <c r="P21">
-        <v>0.001206683324996365</v>
-      </c>
-      <c r="Q21">
-        <v>0.03022361070033333</v>
-      </c>
-      <c r="R21">
-        <v>0.272012496303</v>
-      </c>
-      <c r="S21">
-        <v>0.0003745366725309592</v>
-      </c>
-      <c r="T21">
-        <v>0.0003745366725309591</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3364983333333333</v>
+      </c>
+      <c r="H25">
+        <v>1.009495</v>
+      </c>
+      <c r="I25">
+        <v>0.2510005261215888</v>
+      </c>
+      <c r="J25">
+        <v>0.2510005261215888</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>15.972384</v>
+      </c>
+      <c r="N25">
+        <v>47.917152</v>
+      </c>
+      <c r="O25">
+        <v>0.1976099128607259</v>
+      </c>
+      <c r="P25">
+        <v>0.1976099128607259</v>
+      </c>
+      <c r="Q25">
+        <v>5.37468059536</v>
+      </c>
+      <c r="R25">
+        <v>48.37212535824001</v>
+      </c>
+      <c r="S25">
+        <v>0.04960019209488352</v>
+      </c>
+      <c r="T25">
+        <v>0.04960019209488353</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3364983333333333</v>
+      </c>
+      <c r="H26">
+        <v>1.009495</v>
+      </c>
+      <c r="I26">
+        <v>0.2510005261215888</v>
+      </c>
+      <c r="J26">
+        <v>0.2510005261215888</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.2157183333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.647155</v>
+      </c>
+      <c r="O26">
+        <v>0.002668861520763652</v>
+      </c>
+      <c r="P26">
+        <v>0.002668861520763652</v>
+      </c>
+      <c r="Q26">
+        <v>0.07258885963611111</v>
+      </c>
+      <c r="R26">
+        <v>0.6532997367250001</v>
+      </c>
+      <c r="S26">
+        <v>0.0006698856458573403</v>
+      </c>
+      <c r="T26">
+        <v>0.0006698856458573403</v>
       </c>
     </row>
   </sheetData>
